--- a/ParkYoungWoong/second_clustering(차원축소x).xlsx
+++ b/ParkYoungWoong/second_clustering(차원축소x).xlsx
@@ -31,10 +31,10 @@
     <t>['twbs/bootstrap', 'animate-css/animate.css', 'thedaviddias/Front-End-Checklist', 'h5bp/html5-boilerplate', 'h5bp/Front-end-Developer-Interview-Questions', 'tailwindlabs/tailwindcss', 'necolas/normalize.css', 'jgthms/bulma', 'styled-components/styled-components', 'yangshun/front-end-interview-handbook', 'IanLunn/Hover', 'pure-css/pure', 'jlmakes/scrollreveal', 'postcss/autoprefixer', 'AllThingsSmitty/css-protips', 'nostalgic-css/NES.css', 'qianguyihao/Web']</t>
   </si>
   <si>
-    <t>['github/gitignore', '521xueweihan/HelloGitHub', 'gogs/gogs', 'tiimgreen/github-cheat-sheet', 'go-gitea/gitea', 'go-gitea/gitea', 'cli/cli', 'github/hub', 'git-tips/tips', 'nektos/act']</t>
-  </si>
-  <si>
-    <t>['vinta/awesome-python', 'willmcgugan/rich', 'jobbole/awesome-python-cn', 'tornadoweb/tornado', 'numpy/numpy', 'celery/celery', 'norvig/pytudes', 'facert/awesome-spider', 'reddit-archive/reddit', 'vnpy/vnpy']</t>
+    <t>['github/gitignore', '521xueweihan/HelloGitHub', 'gogs/gogs', 'tiimgreen/github-cheat-sheet', 'go-gitea/gitea', 'go-gitea/gitea', 'cli/cli', 'CodeHubApp/CodeHub', 'github/hub', 'git-tips/tips', 'nektos/act']</t>
+  </si>
+  <si>
+    <t>['vinta/awesome-python', 'psf/requests', 'willmcgugan/rich', 'certbot/certbot', 'jobbole/awesome-python-cn', 'tornadoweb/tornado', 'numpy/numpy', 'celery/celery', 'norvig/pytudes', 'facert/awesome-spider', 'reddit-archive/reddit', 'vnpy/vnpy']</t>
   </si>
   <si>
     <t>['angular/angular', 'mrdoob/three.js', 'nwjs/nw.js', 'Polymer/polymer', 'goldfire/howler.js', 'websockets/ws', 'yewstack/yew']</t>
@@ -43,7 +43,7 @@
     <t>['ReactiveX/RxJava', 'google/guava', 'crossoverJie/JCSprout', 'alibaba/easyexcel', 'LingCoder/OnJava8']</t>
   </si>
   <si>
-    <t>['Genymobile/scrcpy', 'square/okhttp', 'android/architecture-samples', 'square/retrofit', 'JetBrains/kotlin', 'PhilJay/MPAndroidChart', 'airbnb/lottie-android', 'square/leakcanary', 'CymChad/BaseRecyclerViewAdapterHelper', 'google/iosched', 'futurice/android-best-practices', 'afollestad/material-dialogs', 'google/ExoPlayer', 'google/flexbox-layout', 'Kotlin/anko']</t>
+    <t>['square/okhttp', 'android/architecture-samples', 'square/retrofit', 'JetBrains/kotlin', 'PhilJay/MPAndroidChart', 'airbnb/lottie-android', 'square/leakcanary', 'CymChad/BaseRecyclerViewAdapterHelper', 'google/iosched', 'futurice/android-best-practices', 'afollestad/material-dialogs', 'google/ExoPlayer', 'google/flexbox-layout', 'Kotlin/anko']</t>
   </si>
   <si>
     <t>['sindresorhus/awesome', 'awesome-selfhosted/awesome-selfhosted', 'sindresorhus/awesome-nodejs', 'prakhar1989/awesome-courses', 'MunGell/awesome-for-beginners', 'dypsilon/frontend-dev-bookmarks', 'akullpp/awesome-java', 'sindresorhus/awesome-electron', 'lukasz-madon/awesome-remote-job']</t>
@@ -64,10 +64,10 @@
     <t>[('css', 29), ('html', 11), ('javascript', 8), ('frontend', 7), ('interview', 3), ('sass', 2), ('scss', 2), ('style', 2), ('animation', 2), ('web', 2), ('test', 2), ('awesome', 2), ('bootstrap', 1), ('lists', 1), ('checklist', 1)]</t>
   </si>
   <si>
-    <t>[('git', 21), ('go', 4), ('golang', 4), ('awesome', 3), ('gogs', 3), ('devops', 3), ('hacktoberfest', 3), ('python', 1), ('lsif-enabled', 1), ('list', 1), ('cli', 1), ('homebrew', 1), ('pull-request', 1), ('tips', 1), ('tips-and-tricks', 1)]</t>
-  </si>
-  <si>
-    <t>[('python', 19), ('queue', 4), ('task', 3), ('awesome', 2), ('terminal', 2), ('collections', 1), ('emoji', 1), ('syntax-highlighting', 1), ('markdown', 1), ('progress', 1), ('traceback', 1), ('ansi', 1), ('rich', 1), ('hacktoberfest', 1), ('tables', 1)]</t>
+    <t>[('git', 22), ('go', 4), ('golang', 4), ('awesome', 3), ('gogs', 3), ('devops', 3), ('hacktoberfest', 3), ('python', 1), ('lsif-enabled', 1), ('list', 1), ('cli', 1), ('c-sharp', 1), ('react', 1), ('codehub', 1), ('homebrew', 1)]</t>
+  </si>
+  <si>
+    <t>[('python', 22), ('queue', 4), ('task', 3), ('awesome', 2), ('humans', 2), ('terminal', 2), ('collections', 1), ('http', 1), ('client', 1), ('cookies', 1), ('requests', 1), ('emoji', 1), ('syntax-highlighting', 1), ('markdown', 1), ('progress', 1)]</t>
   </si>
   <si>
     <t>[('web', 19), ('javascript', 5), ('nodejs', 3), ('html', 2), ('audio', 2), ('angular', 1), ('typescript', 1), ('pwa', 1), ('svg', 1), ('canvas', 1), ('augmented-reality', 1), ('virtual-reality', 1), ('3d', 1), ('nwjs', 1), ('desktop', 1)]</t>
@@ -76,7 +76,7 @@
     <t>[('java', 4), ('flow', 1), ('rxjava', 1), ('react', 1), ('guava', 1), ('algorithm', 1), ('jvm', 1), ('netty', 1), ('programming', 1), ('basic-java', 1), ('excel', 1), ('xlsx', 1), ('xls', 1), ('poi', 1), ('oom', 1)]</t>
   </si>
   <si>
-    <t>[('android', 20), ('kotlin', 8), ('java', 5), ('animation', 2), ('c', 1), ('ffmpeg', 1), ('sdl2', 1), ('screen', 1), ('libav', 1), ('recording', 1), ('mirroring', 1), ('graalvm', 1), ('samples', 1), ('programming', 1), ('compiler', 1)]</t>
+    <t>[('android', 19), ('kotlin', 8), ('java', 5), ('animation', 2), ('graalvm', 1), ('samples', 1), ('programming', 1), ('compiler', 1), ('maven-plugin', 1), ('gradle-plugin', 1), ('intellij-plugin', 1), ('chart', 1), ('graph', 1), ('airbnb', 1), ('after-effects', 1)]</t>
   </si>
   <si>
     <t>[('awesome', 18), ('list', 5), ('nodejs', 2), ('lists', 1), ('unicorns', 1), ('resources', 1), ('cloud', 1), ('privacy', 1), ('selfhosted', 1), ('hosting', 1), ('self-hosted', 1), ('javascript', 1), ('computer-science', 1), ('courses', 1), ('beginner-project', 1)]</t>
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -514,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -565,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
